--- a/제품정보.xlsx
+++ b/제품정보.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1074">
   <si>
     <t>아디디</t>
   </si>
@@ -37,6 +37,9 @@
     <t>List 가격</t>
   </si>
   <si>
+    <t>Retail 가격</t>
+  </si>
+  <si>
     <t>세일 가격</t>
   </si>
   <si>
@@ -46,6 +49,2280 @@
     <t>성별</t>
   </si>
   <si>
+    <t>314263</t>
+  </si>
+  <si>
+    <t>Perfume Spray 2.5 oz</t>
+  </si>
+  <si>
+    <t>Clive Christian Chasing The Dragon Euphoric by Clive Christian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/314263.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/314263.jpg</t>
+  </si>
+  <si>
+    <t>937.99</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>703.49</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>314268</t>
+  </si>
+  <si>
+    <t>Perfume Spray 1.6 oz</t>
+  </si>
+  <si>
+    <t>Clive Christian Noble Xx Water Lily by Clive Christian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/314268.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/314268.jpg</t>
+  </si>
+  <si>
+    <t>773.99</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>580.49</t>
+  </si>
+  <si>
+    <t>enough quantity</t>
+  </si>
+  <si>
+    <t>302914</t>
+  </si>
+  <si>
+    <t>Perfume Spray (Private Collection) 1.6 oz</t>
+  </si>
+  <si>
+    <t>Clive Christian V by Clive Christian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/302914.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/302914.jpg</t>
+  </si>
+  <si>
+    <t>871.99</t>
+  </si>
+  <si>
+    <t>485.00</t>
+  </si>
+  <si>
+    <t>653.99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>314278</t>
+  </si>
+  <si>
+    <t>Clive Christian Vision In A Dream Mesmeric by Clive Christian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/314278.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/314278.jpg</t>
+  </si>
+  <si>
+    <t>1006.99</t>
+  </si>
+  <si>
+    <t>755.24</t>
+  </si>
+  <si>
+    <t>364172</t>
+  </si>
+  <si>
+    <t>Cool Water by Davidoff</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364172.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364172.jpg</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>217510</t>
+  </si>
+  <si>
+    <t>Flacon 17 oz</t>
+  </si>
+  <si>
+    <t>Creed Vetiver by Creed</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/217510.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/217510.jpg</t>
+  </si>
+  <si>
+    <t>829.99</t>
+  </si>
+  <si>
+    <t>1005.00</t>
+  </si>
+  <si>
+    <t>622.49</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>306972</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 2.5 oz Tester</t>
+  </si>
+  <si>
+    <t>Creed White Flowers by Creed</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/306972.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/306972.jpg</t>
+  </si>
+  <si>
+    <t>393.99</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>295.49</t>
+  </si>
+  <si>
+    <t>134791</t>
+  </si>
+  <si>
+    <t>Shower Gel 6.8 oz</t>
+  </si>
+  <si>
+    <t>Curious Britney Spears by Britney Spears</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/134791.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/134791.jpg</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>13.49</t>
+  </si>
+  <si>
+    <t>297669</t>
+  </si>
+  <si>
+    <t>David Beckham Variety by David Beckham</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/297669.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/297669.jpg</t>
+  </si>
+  <si>
+    <t>45.54</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>34.16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>218841</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 3.3 oz Unboxed</t>
+  </si>
+  <si>
+    <t>Declaration Cologne by Cartier</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/218841.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/218841.jpg</t>
+  </si>
+  <si>
+    <t>40.99</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>30.74</t>
+  </si>
+  <si>
+    <t>299924</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 1.7 oz</t>
+  </si>
+  <si>
+    <t>Diptyque Ofresia by Diptyque</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/299924.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/299924.jpg</t>
+  </si>
+  <si>
+    <t>215.99</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>161.99</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>132796</t>
+  </si>
+  <si>
+    <t>Dulce Vanilla by Coty</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/132796.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/132796.jpg</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>19.95</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>246367</t>
+  </si>
+  <si>
+    <t>Aftershave Balm 5 oz</t>
+  </si>
+  <si>
+    <t>Dunhill Fresh by Alfred Dunhill</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/246367.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/246367.jpg</t>
+  </si>
+  <si>
+    <t>15.99</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>11.99</t>
+  </si>
+  <si>
+    <t>325185</t>
+  </si>
+  <si>
+    <t>Emporio Armani Because It's You by Giorgio Armani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/325185.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/325185.jpg</t>
+  </si>
+  <si>
+    <t>83.99</t>
+  </si>
+  <si>
+    <t>62.99</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>353404</t>
+  </si>
+  <si>
+    <t>Emporio Armani Stronger With You by Giorgio Armani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/353404.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/353404.jpg</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>191917</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 3.4 oz</t>
+  </si>
+  <si>
+    <t>Encens Epice by Il Profumo</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/191917.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/191917.jpg</t>
+  </si>
+  <si>
+    <t>269.99</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>202.49</t>
+  </si>
+  <si>
+    <t>344363</t>
+  </si>
+  <si>
+    <t>Ermenegildo Zegna Indonesian Oud by Ermenegildo Zegna</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/344363.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/344363.jpg</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>103.50</t>
+  </si>
+  <si>
+    <t>147715</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Vial</t>
+  </si>
+  <si>
+    <t>Escada En Fleurs by Escada</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/147715.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/147715.jpg</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>293377</t>
+  </si>
+  <si>
+    <t>Shower Gel 6.7 oz</t>
+  </si>
+  <si>
+    <t>Esprit Jeans Style by Esprit</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/293377.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/293377.jpg</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>231875</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 3.3 oz</t>
+  </si>
+  <si>
+    <t>Etro Greene Street by Etro</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/231875.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/231875.jpg</t>
+  </si>
+  <si>
+    <t>141.99</t>
+  </si>
+  <si>
+    <t>106.49</t>
+  </si>
+  <si>
+    <t>288654</t>
+  </si>
+  <si>
+    <t>Eutopie No. 1 by Eutopie</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/288654.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/288654.jpg</t>
+  </si>
+  <si>
+    <t>179.99</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>134.99</t>
+  </si>
+  <si>
+    <t>288659</t>
+  </si>
+  <si>
+    <t>Eutopie No. 8 by Eutopie</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/288659.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/288659.jpg</t>
+  </si>
+  <si>
+    <t>217988</t>
+  </si>
+  <si>
+    <t>Shower Gel 4 oz</t>
+  </si>
+  <si>
+    <t>Fare Follie by Carlo Corinto</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/217988.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/217988.jpg</t>
+  </si>
+  <si>
+    <t>349751</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 3.4 oz Tester</t>
+  </si>
+  <si>
+    <t>Floris Turnbull &amp; Asser 71/72 by Floris</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/349751.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/349751.jpg</t>
+  </si>
+  <si>
+    <t>69.30</t>
+  </si>
+  <si>
+    <t>51.97</t>
+  </si>
+  <si>
+    <t>297131</t>
+  </si>
+  <si>
+    <t>Fuoco Infernale by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/297131.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/297131.jpg</t>
+  </si>
+  <si>
+    <t>332.99</t>
+  </si>
+  <si>
+    <t>249.74</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>135291</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 3.4 oz</t>
+  </si>
+  <si>
+    <t>Genji by Parfums Genji</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/135291.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/135291.jpg</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>337263</t>
+  </si>
+  <si>
+    <t>Giorgio Armani Variety by Giorgio Armani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/337263.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/337263.jpg</t>
+  </si>
+  <si>
+    <t>64.99</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>48.74</t>
+  </si>
+  <si>
+    <t>313739</t>
+  </si>
+  <si>
+    <t>Body Lotion 5 oz</t>
+  </si>
+  <si>
+    <t>Gucci Guilty Absolute Pour Femme by Gucci</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/313739.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/313739.jpg</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>29.99</t>
+  </si>
+  <si>
+    <t>299937</t>
+  </si>
+  <si>
+    <t>Guepard Fashion by Guepard</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/299937.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/299937.jpg</t>
+  </si>
+  <si>
+    <t>54.99</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>41.24</t>
+  </si>
+  <si>
+    <t>149149</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/149149.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/149149.jpg</t>
+  </si>
+  <si>
+    <t>76.99</t>
+  </si>
+  <si>
+    <t>57.74</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>299975</t>
+  </si>
+  <si>
+    <t>Guepard Xii by Guepard</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/299975.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/299975.jpg</t>
+  </si>
+  <si>
+    <t>85.99</t>
+  </si>
+  <si>
+    <t>64.49</t>
+  </si>
+  <si>
+    <t>353663</t>
+  </si>
+  <si>
+    <t>Guerlain L'Homme Ideal by Guerlain</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/353663.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/353663.jpg</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>37.12</t>
+  </si>
+  <si>
+    <t>294178</t>
+  </si>
+  <si>
+    <t>Parfum Spray 3.4 oz</t>
+  </si>
+  <si>
+    <t>Herve Gambs Coeur Couronne by Herve Gambs</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294178.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294178.jpg</t>
+  </si>
+  <si>
+    <t>305.99</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>229.49</t>
+  </si>
+  <si>
+    <t>294182</t>
+  </si>
+  <si>
+    <t>Herve Gambs Infusion Noire by Herve Gambs</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294182.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294182.jpg</t>
+  </si>
+  <si>
+    <t>387.99</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>290.99</t>
+  </si>
+  <si>
+    <t>294185</t>
+  </si>
+  <si>
+    <t>Eau De Cologne Intense Spray 3.4 oz</t>
+  </si>
+  <si>
+    <t>Herve Gambs La Baie De Anges by Herve Gambs</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294185.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294185.jpg</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>293851</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 2 oz</t>
+  </si>
+  <si>
+    <t>Histoires De Parfums Olympia Music Hall by Histoires De Parfums</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/293851.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/293851.jpg</t>
+  </si>
+  <si>
+    <t>207.99</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>155.99</t>
+  </si>
+  <si>
+    <t>293849</t>
+  </si>
+  <si>
+    <t>Absolu Eau De Parfum Spray 2 oz</t>
+  </si>
+  <si>
+    <t>Histoires De Parfums Opera 1831 by Histoires De Parfums</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/293849.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/293849.jpg</t>
+  </si>
+  <si>
+    <t>149.99</t>
+  </si>
+  <si>
+    <t>112.49</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>319440</t>
+  </si>
+  <si>
+    <t>Horseball Classic by Horseball</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/319440.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/319440.jpg</t>
+  </si>
+  <si>
+    <t>24.99</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>18.74</t>
+  </si>
+  <si>
+    <t>319441</t>
+  </si>
+  <si>
+    <t>Horseball Extreme by Horseball</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/319441.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/319441.jpg</t>
+  </si>
+  <si>
+    <t>122662</t>
+  </si>
+  <si>
+    <t>Iceberg Universe by Iceberg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/122662.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/122662.jpg</t>
+  </si>
+  <si>
+    <t>41.99</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>145441</t>
+  </si>
+  <si>
+    <t>Aftershave Balm 3.4 oz</t>
+  </si>
+  <si>
+    <t>Incanto by Salvatore Ferragamo</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/145441.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/145441.jpg</t>
+  </si>
+  <si>
+    <t>22.99</t>
+  </si>
+  <si>
+    <t>17.24</t>
+  </si>
+  <si>
+    <t>357424</t>
+  </si>
+  <si>
+    <t>Jaguar Ultimate Power by Jaguar</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357424.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357424.jpg</t>
+  </si>
+  <si>
+    <t>50.49</t>
+  </si>
+  <si>
+    <t>37.87</t>
+  </si>
+  <si>
+    <t>358541</t>
+  </si>
+  <si>
+    <t>Jean Paul Gaultier Scandal by Jean Paul Gaultier</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/358541.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/358541.jpg</t>
+  </si>
+  <si>
+    <t>107.99</t>
+  </si>
+  <si>
+    <t>80.99</t>
+  </si>
+  <si>
+    <t>183507</t>
+  </si>
+  <si>
+    <t>Jo Malone by Jo Malone</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/183507.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/183507.jpg</t>
+  </si>
+  <si>
+    <t>287.99</t>
+  </si>
+  <si>
+    <t>364329</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364329.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364329.jpg</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>364328</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364328.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364328.jpg</t>
+  </si>
+  <si>
+    <t>77.99</t>
+  </si>
+  <si>
+    <t>58.49</t>
+  </si>
+  <si>
+    <t>364486</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364486.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364486.jpg</t>
+  </si>
+  <si>
+    <t>81.99</t>
+  </si>
+  <si>
+    <t>61.49</t>
+  </si>
+  <si>
+    <t>294242</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray Refillable 1.7 oz</t>
+  </si>
+  <si>
+    <t>Kilian In The City Of Sin by Kilian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294242.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294242.jpg</t>
+  </si>
+  <si>
+    <t>767.99</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>575.99</t>
+  </si>
+  <si>
+    <t>294234</t>
+  </si>
+  <si>
+    <t>Kilian Water Calligraphy by Kilian</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294234.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294234.jpg</t>
+  </si>
+  <si>
+    <t>769.99</t>
+  </si>
+  <si>
+    <t>577.49</t>
+  </si>
+  <si>
+    <t>273410</t>
+  </si>
+  <si>
+    <t>Cologne Spray 2 oz</t>
+  </si>
+  <si>
+    <t>L'Affaire by Regency Cosmetics</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/273410.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/273410.jpg</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>309880</t>
+  </si>
+  <si>
+    <t>L'Oriental Love Sense Purple by ESTELLE EWEN</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/309880.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/309880.jpg</t>
+  </si>
+  <si>
+    <t>86.99</t>
+  </si>
+  <si>
+    <t>65.24</t>
+  </si>
+  <si>
+    <t>355917</t>
+  </si>
+  <si>
+    <t>Shower Gel 5 oz</t>
+  </si>
+  <si>
+    <t>Lacoste Eau De Lacoste L.12.12 Pour Elle Eau Fraiche by Lacoste</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/355917.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/355917.jpg</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>15.74</t>
+  </si>
+  <si>
+    <t>338250</t>
+  </si>
+  <si>
+    <t>Lacoste Eau De Lacoste L.12.12 Pour Elle French Panache by Lacoste</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/338250.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/338250.jpg</t>
+  </si>
+  <si>
+    <t>34.99</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>26.24</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>321743</t>
+  </si>
+  <si>
+    <t>Lanvin Modern Princess by Lanvin</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/321743.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/321743.jpg</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.49</t>
+  </si>
+  <si>
+    <t>296717</t>
+  </si>
+  <si>
+    <t>Linari Eleganza Luminosa by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/296717.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/296717.jpg</t>
+  </si>
+  <si>
+    <t>379.99</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>284.99</t>
+  </si>
+  <si>
+    <t>296718</t>
+  </si>
+  <si>
+    <t>Linari Mare Pacifico by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/296718.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/296718.jpg</t>
+  </si>
+  <si>
+    <t>294162</t>
+  </si>
+  <si>
+    <t>Linari Notte Bianca by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294162.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294162.jpg</t>
+  </si>
+  <si>
+    <t>294161</t>
+  </si>
+  <si>
+    <t>Linari Porta Del Cielo by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294161.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294161.jpg</t>
+  </si>
+  <si>
+    <t>296720</t>
+  </si>
+  <si>
+    <t>Linari Vista Sul Mare by LINARI</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/296720.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/296720.jpg</t>
+  </si>
+  <si>
+    <t>222.99</t>
+  </si>
+  <si>
+    <t>167.24</t>
+  </si>
+  <si>
+    <t>294127</t>
+  </si>
+  <si>
+    <t>Lm Parfums Vol d'Hirondelle by LM Parfums</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294127.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294127.jpg</t>
+  </si>
+  <si>
+    <t>299.99</t>
+  </si>
+  <si>
+    <t>224.99</t>
+  </si>
+  <si>
+    <t>282386</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 3.4 oz Tester</t>
+  </si>
+  <si>
+    <t>Lorenzo Villoresi Firenze Kamasurabhi by Lorenzo Villoresi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282386.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282386.jpg</t>
+  </si>
+  <si>
+    <t>159.99</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>119.99</t>
+  </si>
+  <si>
+    <t>282426</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray 1.6 oz</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282426.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282426.jpg</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>282410</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282410.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282410.jpg</t>
+  </si>
+  <si>
+    <t>200.99</t>
+  </si>
+  <si>
+    <t>150.74</t>
+  </si>
+  <si>
+    <t>282399</t>
+  </si>
+  <si>
+    <t>Lorenzo Villoresi Firenze Wild Lavender by Lorenzo Villoresi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282399.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282399.jpg</t>
+  </si>
+  <si>
+    <t>110.99</t>
+  </si>
+  <si>
+    <t>83.24</t>
+  </si>
+  <si>
+    <t>282377</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/282377.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282377.jpg</t>
+  </si>
+  <si>
+    <t>147249</t>
+  </si>
+  <si>
+    <t>Shower Gel 3.4 oz</t>
+  </si>
+  <si>
+    <t>Luciano Soprani Jolie by Luciano Soprani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/147249.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/147249.jpg</t>
+  </si>
+  <si>
+    <t>31.99</t>
+  </si>
+  <si>
+    <t>23.99</t>
+  </si>
+  <si>
+    <t>314258</t>
+  </si>
+  <si>
+    <t>M. Micallef Paris Ananda Celebration by Parfums M Micallef</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/314258.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/314258.jpg</t>
+  </si>
+  <si>
+    <t>249.99</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>187.49</t>
+  </si>
+  <si>
+    <t>282586</t>
+  </si>
+  <si>
+    <t>M. Micallef Paris Avant Garde by Parfums M Micallef</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282586.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282586.jpg</t>
+  </si>
+  <si>
+    <t>139.99</t>
+  </si>
+  <si>
+    <t>104.99</t>
+  </si>
+  <si>
+    <t>331692</t>
+  </si>
+  <si>
+    <t>M. Micallef Studio Mp2 by Parfums M Micallef</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/331692.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/331692.jpg</t>
+  </si>
+  <si>
+    <t>39.60</t>
+  </si>
+  <si>
+    <t>29.70</t>
+  </si>
+  <si>
+    <t>314259</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/314259.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/314259.jpg</t>
+  </si>
+  <si>
+    <t>81.60</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>61.20</t>
+  </si>
+  <si>
+    <t>157820</t>
+  </si>
+  <si>
+    <t>Rose Muskissime Eau De Toilette Spray 3.3 oz</t>
+  </si>
+  <si>
+    <t>Maitre Parfumeur Et Gantier by Maitre Parfumeur et Gantier</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/157820.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/157820.jpg</t>
+  </si>
+  <si>
+    <t>263.99</t>
+  </si>
+  <si>
+    <t>197.99</t>
+  </si>
+  <si>
+    <t>249051</t>
+  </si>
+  <si>
+    <t>Fleurs d'Iris Eau De Parfum Spray 3.3 oz</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/249051.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/249051.jpg</t>
+  </si>
+  <si>
+    <t>239.99</t>
+  </si>
+  <si>
+    <t>199239</t>
+  </si>
+  <si>
+    <t>Mandarina Duck Rouge Intense by Mandarina Duck</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/199239.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/199239.jpg</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>19.49</t>
+  </si>
+  <si>
+    <t>320503</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray (Black Edition Bottle) 1.7 oz Tester</t>
+  </si>
+  <si>
+    <t>Marc Jacobs Daisy by Marc Jacobs</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/320503.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/320503.jpg</t>
+  </si>
+  <si>
+    <t>51.99</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>38.99</t>
+  </si>
+  <si>
+    <t>282617</t>
+  </si>
+  <si>
+    <t>Mark Buxton Devil In Disguise by Mark Buxton</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282617.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282617.jpg</t>
+  </si>
+  <si>
+    <t>311.99</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>233.99</t>
+  </si>
+  <si>
+    <t>282611</t>
+  </si>
+  <si>
+    <t>Mark Buxton Sexual Healing by Mark Buxton</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282611.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282611.jpg</t>
+  </si>
+  <si>
+    <t>89.99</t>
+  </si>
+  <si>
+    <t>282610</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282610.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282610.jpg</t>
+  </si>
+  <si>
+    <t>186.99</t>
+  </si>
+  <si>
+    <t>140.24</t>
+  </si>
+  <si>
+    <t>282608</t>
+  </si>
+  <si>
+    <t>Mark Buxton Sleeping With Ghosts by Mark Buxton</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/282608.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/282608.jpg</t>
+  </si>
+  <si>
+    <t>162.99</t>
+  </si>
+  <si>
+    <t>122.24</t>
+  </si>
+  <si>
+    <t>307767</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 1.3 oz</t>
+  </si>
+  <si>
+    <t>Masaki Art Mosaic by Masaki Matsushima</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307767.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307767.jpg</t>
+  </si>
+  <si>
+    <t>50.99</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>38.24</t>
+  </si>
+  <si>
+    <t>257433</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 2.7 oz</t>
+  </si>
+  <si>
+    <t>Matsu by Masaki Matsushima</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/257433.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/257433.jpg</t>
+  </si>
+  <si>
+    <t>307532</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Concentree Spray 3.4 oz</t>
+  </si>
+  <si>
+    <t>Merchant Of Venice Craquele by Merchant of Venice</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307532.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307532.jpg</t>
+  </si>
+  <si>
+    <t>259.99</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>194.99</t>
+  </si>
+  <si>
+    <t>224860</t>
+  </si>
+  <si>
+    <t>Mexx Xx Lovesome by Mexx</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/224860.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/224860.jpg</t>
+  </si>
+  <si>
+    <t>174895</t>
+  </si>
+  <si>
+    <t>Mexx Xx Nice by Mexx</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/174895.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/174895.jpg</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>224859</t>
+  </si>
+  <si>
+    <t>Mexx Xx Very Wild by Mess</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/224859.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/224859.jpg</t>
+  </si>
+  <si>
+    <t>147193</t>
+  </si>
+  <si>
+    <t>Miss Dior (Cherie) by Christian Dior</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/147193.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/147193.jpg</t>
+  </si>
+  <si>
+    <t>99.99</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>74.99</t>
+  </si>
+  <si>
+    <t>351679</t>
+  </si>
+  <si>
+    <t>Miss Dior Blooming Bouquet by Christian Dior</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/351679.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/351679.jpg</t>
+  </si>
+  <si>
+    <t>306495</t>
+  </si>
+  <si>
+    <t>Miss Soprani by Luciano Soprani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/306495.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/306495.jpg</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>34.49</t>
+  </si>
+  <si>
+    <t>310233</t>
+  </si>
+  <si>
+    <t>Extrait De Parfum Spray 1.7 oz</t>
+  </si>
+  <si>
+    <t>Montale Paris Intense So Iris by Montale</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/310233.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/310233.jpg</t>
+  </si>
+  <si>
+    <t>157.99</t>
+  </si>
+  <si>
+    <t>118.49</t>
+  </si>
+  <si>
+    <t>174826</t>
+  </si>
+  <si>
+    <t>Naomi Campbell Seductive Elixir by Naomi Campbell</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/174826.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/174826.jpg</t>
+  </si>
+  <si>
+    <t>364288</t>
+  </si>
+  <si>
+    <t>Nautica Blue Sail by Nautica</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364288.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364288.jpg</t>
+  </si>
+  <si>
+    <t>364295</t>
+  </si>
+  <si>
+    <t>Nautica Variety by Nautica</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364295.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364295.jpg</t>
+  </si>
+  <si>
+    <t>364289</t>
+  </si>
+  <si>
+    <t>Nautica Voyage Heritage by Nautica</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364289.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364289.jpg</t>
+  </si>
+  <si>
+    <t>364290</t>
+  </si>
+  <si>
+    <t>Nautica Voyage Sport by Nautica</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364290.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364290.jpg</t>
+  </si>
+  <si>
+    <t>360891</t>
+  </si>
+  <si>
+    <t>Paco Rabanne 1 Million by Paco Rabanne</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/360891.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/360891.jpg</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>78.74</t>
+  </si>
+  <si>
+    <t>247683</t>
+  </si>
+  <si>
+    <t>Paco Rabanne Lady Million by Paco Rabanne</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/247683.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/247683.jpg</t>
+  </si>
+  <si>
+    <t>59.40</t>
+  </si>
+  <si>
+    <t>44.55</t>
+  </si>
+  <si>
+    <t>259254</t>
+  </si>
+  <si>
+    <t>Pal Zileri Uomo by Pal Zileri</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/259254.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/259254.jpg</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>20.24</t>
+  </si>
+  <si>
+    <t>307797</t>
+  </si>
+  <si>
+    <t>Eau De Parfum 3.4 oz</t>
+  </si>
+  <si>
+    <t>Palquis Love'N Blue Rose by Palquis</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307797.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307797.jpg</t>
+  </si>
+  <si>
+    <t>47.99</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>307799</t>
+  </si>
+  <si>
+    <t>Palquis Lover Lady by Palquis</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307799.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307799.jpg</t>
+  </si>
+  <si>
+    <t>63.99</t>
+  </si>
+  <si>
+    <t>286496</t>
+  </si>
+  <si>
+    <t>Parfums d'Orsay Arome 3 by Parfums d'Orsay</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/286496.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/286496.jpg</t>
+  </si>
+  <si>
+    <t>125.99</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>94.49</t>
+  </si>
+  <si>
+    <t>286495</t>
+  </si>
+  <si>
+    <t>Parfums d'Orsay Chevalier d'Orsay by Parfums d'Orsay</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/286495.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/286495.jpg</t>
+  </si>
+  <si>
+    <t>175.99</t>
+  </si>
+  <si>
+    <t>131.99</t>
+  </si>
+  <si>
+    <t>319419</t>
+  </si>
+  <si>
+    <t>Pascal Morabito Or Star by Pascal Morabito</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/319419.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/319419.jpg</t>
+  </si>
+  <si>
+    <t>36.99</t>
+  </si>
+  <si>
+    <t>27.74</t>
+  </si>
+  <si>
+    <t>304185</t>
+  </si>
+  <si>
+    <t>Paul Emilien Carrousel by Paul Emilien</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/304185.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/304185.jpg</t>
+  </si>
+  <si>
+    <t>124.99</t>
+  </si>
+  <si>
+    <t>93.74</t>
+  </si>
+  <si>
+    <t>304197</t>
+  </si>
+  <si>
+    <t>Paul Emilien Une Belle Journee by Paul Emilien</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/304197.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/304197.jpg</t>
+  </si>
+  <si>
+    <t>217.99</t>
+  </si>
+  <si>
+    <t>163.49</t>
+  </si>
+  <si>
+    <t>255978</t>
+  </si>
+  <si>
+    <t>Penhaligon's Anthology Night Scented Stock  by Penhaligon's</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/255978.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/255978.jpg</t>
+  </si>
+  <si>
+    <t>178.99</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>134.24</t>
+  </si>
+  <si>
+    <t>258472</t>
+  </si>
+  <si>
+    <t>Cleansing Mask 5 oz</t>
+  </si>
+  <si>
+    <t>Penhaligon's Bayolea by Penhaligon's</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/258472.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/258472.jpg</t>
+  </si>
+  <si>
+    <t>210552</t>
+  </si>
+  <si>
+    <t>Islys Gold Eau De Parfum Spray 1.7 oz</t>
+  </si>
+  <si>
+    <t>Pierre Durrani by Pierre Durrani</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/210552.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/210552.jpg</t>
+  </si>
+  <si>
+    <t>60.74</t>
+  </si>
+  <si>
+    <t>191927</t>
+  </si>
+  <si>
+    <t>Bath Shower Shampoo 6.7 oz</t>
+  </si>
+  <si>
+    <t>Pioggia Salata by Il Profumo</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/191927.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/191927.jpg</t>
+  </si>
+  <si>
+    <t>311570</t>
+  </si>
+  <si>
+    <t>Deodorant Spray Alcohol Free 5.1 oz</t>
+  </si>
+  <si>
+    <t>Police Icon by Police</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/311570.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/311570.jpg</t>
+  </si>
+  <si>
+    <t>217632</t>
+  </si>
+  <si>
+    <t>Polo Blue by Ralph Lauren</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/217632.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/217632.jpg</t>
+  </si>
+  <si>
+    <t>109.99</t>
+  </si>
+  <si>
+    <t>82.49</t>
+  </si>
+  <si>
+    <t>145698</t>
+  </si>
+  <si>
+    <t>Polo Crest by Ralph Lauren</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/145698.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/145698.jpg</t>
+  </si>
+  <si>
+    <t>243548</t>
+  </si>
+  <si>
+    <t>Eau De Toilette Spray (Limited Edition) 3.4 oz</t>
+  </si>
+  <si>
+    <t>Prada Infusion d'Iris L'Eau d'Iris by Prada</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/243548.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/243548.jpg</t>
+  </si>
+  <si>
+    <t>172.99</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>129.74</t>
+  </si>
+  <si>
+    <t>335215</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 8.4 oz</t>
+  </si>
+  <si>
+    <t>Purple Oud by Christian Dior</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/335215.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/335215.jpg</t>
+  </si>
+  <si>
+    <t>1027.99</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>770.99</t>
+  </si>
+  <si>
+    <t>307771</t>
+  </si>
+  <si>
+    <t>Ralph Lauren Collection Sage by Ralph Lauren</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307771.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307771.jpg</t>
+  </si>
+  <si>
+    <t>342.99</t>
+  </si>
+  <si>
+    <t>257.24</t>
+  </si>
+  <si>
+    <t>307770</t>
+  </si>
+  <si>
+    <t>Ralph Lauren Collection Vetiver by Ralph Lauren</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/307770.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/307770.jpg</t>
+  </si>
+  <si>
+    <t>392.99</t>
+  </si>
+  <si>
+    <t>294.74</t>
+  </si>
+  <si>
+    <t>294227</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 2.5 oz</t>
+  </si>
+  <si>
+    <t>Ramon Bejar Celestial Rose by Ramon Bejar</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294227.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294227.jpg</t>
+  </si>
+  <si>
+    <t>534.99</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>401.24</t>
+  </si>
+  <si>
+    <t>294224</t>
+  </si>
+  <si>
+    <t>Ramon Bejar Magnum Iris by Ramon Bejar</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294224.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294224.jpg</t>
+  </si>
+  <si>
+    <t>501.99</t>
+  </si>
+  <si>
+    <t>376.49</t>
+  </si>
+  <si>
+    <t>294222</t>
+  </si>
+  <si>
+    <t>Ramon Bejar Secret Sandalwood by Ramon Bejar</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294222.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294222.jpg</t>
+  </si>
+  <si>
+    <t>545.99</t>
+  </si>
+  <si>
+    <t>409.49</t>
+  </si>
+  <si>
+    <t>303416</t>
+  </si>
+  <si>
+    <t>Replay #Tank by Replay</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/303416.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/303416.jpg</t>
+  </si>
+  <si>
+    <t>219652</t>
+  </si>
+  <si>
+    <t>Eau De Parfum Spray 1.7 oz</t>
+  </si>
+  <si>
+    <t>Reve De Weil by Weil</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/219652.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/219652.jpg</t>
+  </si>
+  <si>
+    <t>103.99</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>221533</t>
+  </si>
+  <si>
+    <t>Sand &amp; Sable by Coty</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/221533.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/221533.jpg</t>
+  </si>
+  <si>
+    <t>30.99</t>
+  </si>
+  <si>
+    <t>23.24</t>
+  </si>
+  <si>
     <t>260202</t>
   </si>
   <si>
@@ -58,27 +2335,12 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/260202.jpg</t>
   </si>
   <si>
-    <t>81.99</t>
-  </si>
-  <si>
     <t>94.00</t>
   </si>
   <si>
-    <t>61.49</t>
-  </si>
-  <si>
-    <t>enough quantity</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>296757</t>
   </si>
   <si>
-    <t>Eau De Toilette Spray 1.7 oz</t>
-  </si>
-  <si>
     <t>Sergio Tacchini Fantasy Forever Eau Romantique by Sergio Tacchini</t>
   </si>
   <si>
@@ -91,18 +2353,9 @@
     <t>48.99</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>36.74</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>247663</t>
   </si>
   <si>
@@ -121,12 +2374,30 @@
     <t>79.99</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
     <t>59.99</t>
   </si>
   <si>
+    <t>245484</t>
+  </si>
+  <si>
+    <t>Shalimar by Guerlain</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/245484.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/245484.jpg</t>
+  </si>
+  <si>
+    <t>57.99</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>43.49</t>
+  </si>
+  <si>
     <t>288014</t>
   </si>
   <si>
@@ -142,15 +2413,9 @@
     <t>71.99</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>53.99</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>331493</t>
   </si>
   <si>
@@ -169,9 +2434,6 @@
     <t>206.99</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>155.24</t>
   </si>
   <si>
@@ -205,12 +2467,6 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/331499.jpg</t>
   </si>
   <si>
-    <t>195.99</t>
-  </si>
-  <si>
-    <t>146.99</t>
-  </si>
-  <si>
     <t>296770</t>
   </si>
   <si>
@@ -271,9 +2527,6 @@
     <t>328.49</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>296294</t>
   </si>
   <si>
@@ -295,9 +2548,6 @@
     <t>171.74</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>318055</t>
   </si>
   <si>
@@ -352,9 +2602,6 @@
     <t>443.99</t>
   </si>
   <si>
-    <t>332.99</t>
-  </si>
-  <si>
     <t>296300</t>
   </si>
   <si>
@@ -388,21 +2635,12 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/267342.jpg</t>
   </si>
   <si>
-    <t>30.99</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>23.24</t>
-  </si>
-  <si>
     <t>123575</t>
   </si>
   <si>
-    <t>Eau De Parfum Spray 2.5 oz</t>
-  </si>
-  <si>
     <t>Strenesse by Gabriele Strehle</t>
   </si>
   <si>
@@ -412,28 +2650,46 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/123575.jpg</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>44.99</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>296304</t>
+    <t>294123</t>
+  </si>
+  <si>
+    <t>Sue Wong Beauty by Sue Wong</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294123.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294123.jpg</t>
+  </si>
+  <si>
+    <t>121.49</t>
+  </si>
+  <si>
+    <t>294124</t>
+  </si>
+  <si>
+    <t>Sue Wong Magic by Sue Wong</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/294124.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/294124.jpg</t>
+  </si>
+  <si>
+    <t>296305</t>
   </si>
   <si>
     <t>Eau De Parfum Spray 3.3 oz Tester</t>
   </si>
   <si>
-    <t>Sue Wong Beauty by Sue Wong</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/300x300/296304.jpg</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/900x900/296304.jpg</t>
+    <t>//cdn.fragrancenet.com/images/photos/300x300/296305.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/296305.jpg</t>
   </si>
   <si>
     <t>113.99</t>
@@ -442,45 +2698,6 @@
     <t>85.49</t>
   </si>
   <si>
-    <t>294123</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/300x300/294123.jpg</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/900x900/294123.jpg</t>
-  </si>
-  <si>
-    <t>161.99</t>
-  </si>
-  <si>
-    <t>83.99</t>
-  </si>
-  <si>
-    <t>121.49</t>
-  </si>
-  <si>
-    <t>294124</t>
-  </si>
-  <si>
-    <t>Sue Wong Magic by Sue Wong</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/300x300/294124.jpg</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/900x900/294124.jpg</t>
-  </si>
-  <si>
-    <t>296305</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/300x300/296305.jpg</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/900x900/296305.jpg</t>
-  </si>
-  <si>
     <t>296306</t>
   </si>
   <si>
@@ -493,9 +2710,6 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/296306.jpg</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>294126</t>
   </si>
   <si>
@@ -520,12 +2734,6 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/273407.jpg</t>
   </si>
   <si>
-    <t>19.99</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
     <t>308760</t>
   </si>
   <si>
@@ -541,9 +2749,6 @@
     <t>120.99</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>90.74</t>
   </si>
   <si>
@@ -559,15 +2764,9 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/259812.jpg</t>
   </si>
   <si>
-    <t>263.99</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
-    <t>197.99</t>
-  </si>
-  <si>
     <t>259807</t>
   </si>
   <si>
@@ -601,9 +2800,6 @@
     <t>191.99</t>
   </si>
   <si>
-    <t>230.00</t>
-  </si>
-  <si>
     <t>143.99</t>
   </si>
   <si>
@@ -619,21 +2815,9 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/230832.jpg</t>
   </si>
   <si>
-    <t>157.99</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>118.49</t>
-  </si>
-  <si>
     <t>297084</t>
   </si>
   <si>
-    <t>Eau De Parfum Spray 3.4 oz</t>
-  </si>
-  <si>
     <t>The Great Inca Priestesses by Romea D'Ameor</t>
   </si>
   <si>
@@ -643,12 +2827,6 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/297084.jpg</t>
   </si>
   <si>
-    <t>139.99</t>
-  </si>
-  <si>
-    <t>104.99</t>
-  </si>
-  <si>
     <t>333598</t>
   </si>
   <si>
@@ -661,15 +2839,9 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/333598.jpg</t>
   </si>
   <si>
-    <t>77.99</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>58.49</t>
-  </si>
-  <si>
     <t>333599</t>
   </si>
   <si>
@@ -682,33 +2854,180 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>357200</t>
-  </si>
-  <si>
-    <t>Shower Gel 8.4 oz</t>
-  </si>
-  <si>
-    <t>Tiziana Terenzi Andromeda by Tiziana Terenzi</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/250x250/357200.jpg</t>
-  </si>
-  <si>
-    <t>//cdn.fragrancenet.com/images/photos/900x900/357200.jpg</t>
-  </si>
-  <si>
-    <t>72.99</t>
-  </si>
-  <si>
-    <t>54.74</t>
+    <t>357189</t>
+  </si>
+  <si>
+    <t>Extrait De Parfum Spray 3.3 oz</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Alioth Assoluto by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357189.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357189.jpg</t>
+  </si>
+  <si>
+    <t>849.99</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>637.49</t>
+  </si>
+  <si>
+    <t>357194</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Arrakis by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357194.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357194.jpg</t>
+  </si>
+  <si>
+    <t>457.99</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>343.49</t>
+  </si>
+  <si>
+    <t>357195</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Draconis by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357195.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357195.jpg</t>
+  </si>
+  <si>
+    <t>449.99</t>
+  </si>
+  <si>
+    <t>337.49</t>
+  </si>
+  <si>
+    <t>317832</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Dubhe Assoluto by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/317832.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/317832.jpg</t>
+  </si>
+  <si>
+    <t>859.99</t>
+  </si>
+  <si>
+    <t>644.99</t>
+  </si>
+  <si>
+    <t>328801</t>
+  </si>
+  <si>
+    <t>Scented Black Glass Candle 5.7 oz</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Ecstasy by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/328801.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/328801.jpg</t>
+  </si>
+  <si>
+    <t>84.99</t>
+  </si>
+  <si>
+    <t>63.74</t>
+  </si>
+  <si>
+    <t>357204</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Hale Bopp by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357204.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357204.jpg</t>
+  </si>
+  <si>
+    <t>432.99</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>324.74</t>
+  </si>
+  <si>
+    <t>362846</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Halley by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/362846.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/362846.jpg</t>
+  </si>
+  <si>
+    <t>4247.99</t>
+  </si>
+  <si>
+    <t>3185.99</t>
+  </si>
+  <si>
+    <t>362847</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Lunanera by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/362847.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/362847.jpg</t>
+  </si>
+  <si>
+    <t>304.99</t>
+  </si>
+  <si>
+    <t>228.74</t>
+  </si>
+  <si>
+    <t>357201</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Moro De Venezia by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357201.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357201.jpg</t>
   </si>
   <si>
     <t>317823</t>
   </si>
   <si>
-    <t>Extrait De Parfum Spray 3.3 oz</t>
-  </si>
-  <si>
     <t>Tiziana Terenzi Saiph by Tiziana Terenzi</t>
   </si>
   <si>
@@ -721,12 +3040,51 @@
     <t>366.99</t>
   </si>
   <si>
-    <t>450.00</t>
-  </si>
-  <si>
     <t>275.24</t>
   </si>
   <si>
+    <t>357196</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Siene by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357196.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357196.jpg</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>168.74</t>
+  </si>
+  <si>
+    <t>362848</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Tempel by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/362848.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/362848.jpg</t>
+  </si>
+  <si>
+    <t>357202</t>
+  </si>
+  <si>
+    <t>Tiziana Terenzi Wirtaner by Tiziana Terenzi</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/357202.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/357202.jpg</t>
+  </si>
+  <si>
     <t>293606</t>
   </si>
   <si>
@@ -742,10 +3100,16 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/293606.jpg</t>
   </si>
   <si>
-    <t>80.99</t>
-  </si>
-  <si>
-    <t>60.74</t>
+    <t>322564</t>
+  </si>
+  <si>
+    <t>Valor by Dana</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/322564.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/322564.jpg</t>
   </si>
   <si>
     <t>305931</t>
@@ -772,10 +3136,16 @@
     <t>//cdn.fragrancenet.com/images/photos/900x900/282550.jpg</t>
   </si>
   <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>249.74</t>
+    <t>359185</t>
+  </si>
+  <si>
+    <t>Versace Eros by Gianni Versace</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/359185.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/359185.jpg</t>
   </si>
   <si>
     <t>353982</t>
@@ -794,6 +3164,21 @@
   </si>
   <si>
     <t>7.49</t>
+  </si>
+  <si>
+    <t>364283</t>
+  </si>
+  <si>
+    <t>Womens Coty Omni Variety by Coty</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/250x250/364283.jpg</t>
+  </si>
+  <si>
+    <t>//cdn.fragrancenet.com/images/photos/900x900/364283.jpg</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>362705</t>
@@ -1182,7 +3567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,185 +3604,191 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -1412,1261 +3803,5858 @@
         <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>425</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>450</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>159</v>
-      </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>475</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>525</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>550</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="K29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>575</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="I30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" t="s">
         <v>196</v>
       </c>
-      <c r="J30" t="s">
-        <v>27</v>
-      </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>576</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>590</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="I32" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>604</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>618</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>244</v>
+      </c>
+      <c r="C34" t="s">
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>632</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>646</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="I36" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>660</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="I37" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>674</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>688</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="I39" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>702</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="K40" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>716</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>730</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="H42" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="I42" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>310</v>
+      </c>
+      <c r="H43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" t="s">
+        <v>330</v>
+      </c>
+      <c r="H47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>335</v>
+      </c>
+      <c r="H48" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" t="s">
+        <v>343</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>349</v>
+      </c>
+      <c r="H50" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" t="s">
+        <v>353</v>
+      </c>
+      <c r="E51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>358</v>
+      </c>
+      <c r="E52" t="s">
+        <v>359</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>361</v>
+      </c>
+      <c r="H52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I52" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s">
+        <v>231</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" t="s">
+        <v>364</v>
+      </c>
+      <c r="D53" t="s">
+        <v>365</v>
+      </c>
+      <c r="E53" t="s">
+        <v>366</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" t="s">
+        <v>369</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" t="s">
+        <v>372</v>
+      </c>
+      <c r="F54" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" t="s">
+        <v>374</v>
+      </c>
+      <c r="H54" t="s">
+        <v>375</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>382</v>
+      </c>
+      <c r="H55" t="s">
+        <v>383</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>385</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" t="s">
+        <v>390</v>
+      </c>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>392</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>393</v>
+      </c>
+      <c r="E57" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" t="s">
+        <v>390</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>396</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>397</v>
+      </c>
+      <c r="E58" t="s">
+        <v>398</v>
+      </c>
+      <c r="F58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" t="s">
+        <v>389</v>
+      </c>
+      <c r="H58" t="s">
+        <v>390</v>
+      </c>
+      <c r="I58" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>401</v>
+      </c>
+      <c r="E59" t="s">
+        <v>402</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>270</v>
+      </c>
+      <c r="H59" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>404</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" t="s">
+        <v>406</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" t="s">
+        <v>409</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>411</v>
+      </c>
+      <c r="E61" t="s">
+        <v>412</v>
+      </c>
+      <c r="F61" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>415</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>416</v>
+      </c>
+      <c r="C62" t="s">
+        <v>417</v>
+      </c>
+      <c r="D62" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" t="s">
+        <v>419</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" t="s">
+        <v>421</v>
+      </c>
+      <c r="H62" t="s">
+        <v>422</v>
+      </c>
+      <c r="I62" t="s">
+        <v>423</v>
+      </c>
+      <c r="J62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C63" t="s">
+        <v>425</v>
+      </c>
+      <c r="D63" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" t="s">
+        <v>426</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
+        <v>421</v>
+      </c>
+      <c r="H63" t="s">
+        <v>428</v>
+      </c>
+      <c r="I63" t="s">
+        <v>423</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" t="s">
+        <v>430</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" t="s">
+        <v>432</v>
+      </c>
+      <c r="H64" t="s">
+        <v>422</v>
+      </c>
+      <c r="I64" t="s">
+        <v>433</v>
+      </c>
+      <c r="J64" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E65" t="s">
+        <v>436</v>
+      </c>
+      <c r="F65" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" t="s">
+        <v>438</v>
+      </c>
+      <c r="H65" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" t="s">
+        <v>439</v>
+      </c>
+      <c r="J65" t="s">
+        <v>280</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>440</v>
+      </c>
+      <c r="C66" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" t="s">
+        <v>435</v>
+      </c>
+      <c r="E66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>421</v>
+      </c>
+      <c r="H66" t="s">
+        <v>422</v>
+      </c>
+      <c r="I66" t="s">
+        <v>423</v>
+      </c>
+      <c r="J66" t="s">
+        <v>377</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" t="s">
+        <v>444</v>
+      </c>
+      <c r="D67" t="s">
+        <v>445</v>
+      </c>
+      <c r="E67" t="s">
+        <v>446</v>
+      </c>
+      <c r="F67" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>448</v>
+      </c>
+      <c r="H67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>450</v>
+      </c>
+      <c r="D68" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" t="s">
+        <v>452</v>
+      </c>
+      <c r="F68" t="s">
+        <v>453</v>
+      </c>
+      <c r="G68" t="s">
+        <v>454</v>
+      </c>
+      <c r="H68" t="s">
+        <v>455</v>
+      </c>
+      <c r="I68" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" t="s">
+        <v>460</v>
+      </c>
+      <c r="G69" t="s">
+        <v>461</v>
+      </c>
+      <c r="H69" t="s">
+        <v>455</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>280</v>
+      </c>
+      <c r="K69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>463</v>
+      </c>
+      <c r="D70" t="s">
+        <v>464</v>
+      </c>
+      <c r="E70" t="s">
+        <v>465</v>
+      </c>
+      <c r="F70" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s">
+        <v>468</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>469</v>
+      </c>
+      <c r="D71" t="s">
+        <v>464</v>
+      </c>
+      <c r="E71" t="s">
+        <v>470</v>
+      </c>
+      <c r="F71" t="s">
+        <v>471</v>
+      </c>
+      <c r="G71" t="s">
+        <v>472</v>
+      </c>
+      <c r="H71" t="s">
+        <v>473</v>
+      </c>
+      <c r="I71" t="s">
+        <v>474</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>475</v>
+      </c>
+      <c r="C72" t="s">
+        <v>476</v>
+      </c>
+      <c r="D72" t="s">
+        <v>477</v>
+      </c>
+      <c r="E72" t="s">
+        <v>478</v>
+      </c>
+      <c r="F72" t="s">
+        <v>479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>480</v>
+      </c>
+      <c r="H72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>481</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73" t="s">
+        <v>483</v>
+      </c>
+      <c r="D73" t="s">
+        <v>477</v>
+      </c>
+      <c r="E73" t="s">
+        <v>484</v>
+      </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>486</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>171</v>
+      </c>
+      <c r="J73" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" t="s">
+        <v>488</v>
+      </c>
+      <c r="E74" t="s">
+        <v>489</v>
+      </c>
+      <c r="F74" t="s">
+        <v>490</v>
+      </c>
+      <c r="G74" t="s">
+        <v>491</v>
+      </c>
+      <c r="H74" t="s">
+        <v>492</v>
+      </c>
+      <c r="I74" t="s">
+        <v>493</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>494</v>
+      </c>
+      <c r="C75" t="s">
+        <v>495</v>
+      </c>
+      <c r="D75" t="s">
+        <v>496</v>
+      </c>
+      <c r="E75" t="s">
+        <v>497</v>
+      </c>
+      <c r="F75" t="s">
+        <v>498</v>
+      </c>
+      <c r="G75" t="s">
+        <v>499</v>
+      </c>
+      <c r="H75" t="s">
+        <v>500</v>
+      </c>
+      <c r="I75" t="s">
+        <v>501</v>
+      </c>
+      <c r="J75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" t="s">
+        <v>503</v>
+      </c>
+      <c r="E76" t="s">
+        <v>504</v>
+      </c>
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" t="s">
+        <v>506</v>
+      </c>
+      <c r="H76" t="s">
+        <v>507</v>
+      </c>
+      <c r="I76" t="s">
+        <v>508</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>509</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" t="s">
+        <v>510</v>
+      </c>
+      <c r="E77" t="s">
+        <v>511</v>
+      </c>
+      <c r="F77" t="s">
+        <v>512</v>
+      </c>
+      <c r="G77" t="s">
+        <v>423</v>
+      </c>
+      <c r="H77" t="s">
+        <v>507</v>
+      </c>
+      <c r="I77" t="s">
+        <v>513</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>510</v>
+      </c>
+      <c r="E78" t="s">
+        <v>515</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>517</v>
+      </c>
+      <c r="H78" t="s">
+        <v>507</v>
+      </c>
+      <c r="I78" t="s">
+        <v>518</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79" t="s">
+        <v>519</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>520</v>
+      </c>
+      <c r="E79" t="s">
+        <v>521</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>523</v>
+      </c>
+      <c r="H79" t="s">
+        <v>507</v>
+      </c>
+      <c r="I79" t="s">
+        <v>524</v>
+      </c>
+      <c r="J79" t="s">
+        <v>196</v>
+      </c>
+      <c r="K79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>525</v>
+      </c>
+      <c r="C80" t="s">
+        <v>526</v>
+      </c>
+      <c r="D80" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80" t="s">
+        <v>528</v>
+      </c>
+      <c r="F80" t="s">
+        <v>529</v>
+      </c>
+      <c r="G80" t="s">
+        <v>530</v>
+      </c>
+      <c r="H80" t="s">
+        <v>531</v>
+      </c>
+      <c r="I80" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>533</v>
+      </c>
+      <c r="C81" t="s">
+        <v>534</v>
+      </c>
+      <c r="D81" t="s">
+        <v>535</v>
+      </c>
+      <c r="E81" t="s">
+        <v>536</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" t="s">
+        <v>229</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" t="s">
+        <v>230</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>538</v>
+      </c>
+      <c r="C82" t="s">
+        <v>539</v>
+      </c>
+      <c r="D82" t="s">
+        <v>540</v>
+      </c>
+      <c r="E82" t="s">
+        <v>541</v>
+      </c>
+      <c r="F82" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" t="s">
+        <v>543</v>
+      </c>
+      <c r="H82" t="s">
+        <v>544</v>
+      </c>
+      <c r="I82" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>546</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>547</v>
+      </c>
+      <c r="E83" t="s">
+        <v>548</v>
+      </c>
+      <c r="F83" t="s">
+        <v>549</v>
+      </c>
+      <c r="G83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>550</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" t="s">
+        <v>552</v>
+      </c>
+      <c r="F84" t="s">
+        <v>553</v>
+      </c>
+      <c r="G84" t="s">
+        <v>108</v>
+      </c>
+      <c r="H84" t="s">
+        <v>554</v>
+      </c>
+      <c r="I84" t="s">
+        <v>555</v>
+      </c>
+      <c r="J84" t="s">
+        <v>556</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>557</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>558</v>
+      </c>
+      <c r="E85" t="s">
+        <v>559</v>
+      </c>
+      <c r="F85" t="s">
+        <v>560</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+      <c r="J85" t="s">
+        <v>280</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>80</v>
+      </c>
+      <c r="B86" t="s">
+        <v>561</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>562</v>
+      </c>
+      <c r="E86" t="s">
+        <v>563</v>
+      </c>
+      <c r="F86" t="s">
+        <v>564</v>
+      </c>
+      <c r="G86" t="s">
+        <v>565</v>
+      </c>
+      <c r="H86" t="s">
+        <v>566</v>
+      </c>
+      <c r="I86" t="s">
+        <v>567</v>
+      </c>
+      <c r="J86" t="s">
+        <v>377</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>568</v>
+      </c>
+      <c r="D87" t="s">
+        <v>569</v>
+      </c>
+      <c r="E87" t="s">
+        <v>570</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>461</v>
+      </c>
+      <c r="H87" t="s">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s">
+        <v>462</v>
+      </c>
+      <c r="J87" t="s">
+        <v>29</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>572</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>573</v>
+      </c>
+      <c r="E88" t="s">
+        <v>574</v>
+      </c>
+      <c r="F88" t="s">
+        <v>575</v>
+      </c>
+      <c r="G88" t="s">
+        <v>576</v>
+      </c>
+      <c r="H88" t="s">
+        <v>428</v>
+      </c>
+      <c r="I88" t="s">
+        <v>577</v>
+      </c>
+      <c r="J88" t="s">
+        <v>196</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>578</v>
+      </c>
+      <c r="C89" t="s">
+        <v>579</v>
+      </c>
+      <c r="D89" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" t="s">
+        <v>581</v>
+      </c>
+      <c r="F89" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" t="s">
+        <v>583</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s">
+        <v>584</v>
+      </c>
+      <c r="J89" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>585</v>
+      </c>
+      <c r="C90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" t="s">
+        <v>586</v>
+      </c>
+      <c r="E90" t="s">
+        <v>587</v>
+      </c>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" t="s">
+        <v>296</v>
+      </c>
+      <c r="H90" t="s">
+        <v>286</v>
+      </c>
+      <c r="I90" t="s">
+        <v>298</v>
+      </c>
+      <c r="J90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>589</v>
+      </c>
+      <c r="D91" t="s">
+        <v>590</v>
+      </c>
+      <c r="E91" t="s">
+        <v>591</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s">
+        <v>84</v>
+      </c>
+      <c r="K91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>593</v>
+      </c>
+      <c r="D92" t="s">
+        <v>594</v>
+      </c>
+      <c r="E92" t="s">
+        <v>595</v>
+      </c>
+      <c r="F92" t="s">
+        <v>596</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s">
+        <v>231</v>
+      </c>
+      <c r="K92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>597</v>
+      </c>
+      <c r="D93" t="s">
+        <v>598</v>
+      </c>
+      <c r="E93" t="s">
+        <v>599</v>
+      </c>
+      <c r="F93" t="s">
+        <v>600</v>
+      </c>
+      <c r="G93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>88</v>
+      </c>
+      <c r="B94" t="s">
+        <v>601</v>
+      </c>
+      <c r="D94" t="s">
+        <v>602</v>
+      </c>
+      <c r="E94" t="s">
+        <v>603</v>
+      </c>
+      <c r="F94" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s">
+        <v>29</v>
+      </c>
+      <c r="K94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>605</v>
+      </c>
+      <c r="D95" t="s">
+        <v>606</v>
+      </c>
+      <c r="E95" t="s">
+        <v>607</v>
+      </c>
+      <c r="F95" t="s">
+        <v>608</v>
+      </c>
+      <c r="G95" t="s">
+        <v>462</v>
+      </c>
+      <c r="H95" t="s">
+        <v>609</v>
+      </c>
+      <c r="I95" t="s">
+        <v>610</v>
+      </c>
+      <c r="J95" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>611</v>
+      </c>
+      <c r="D96" t="s">
+        <v>612</v>
+      </c>
+      <c r="E96" t="s">
+        <v>613</v>
+      </c>
+      <c r="F96" t="s">
+        <v>614</v>
+      </c>
+      <c r="G96" t="s">
+        <v>615</v>
+      </c>
+      <c r="H96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s">
+        <v>616</v>
+      </c>
+      <c r="J96" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>617</v>
+      </c>
+      <c r="C97" t="s">
+        <v>417</v>
+      </c>
+      <c r="D97" t="s">
+        <v>618</v>
+      </c>
+      <c r="E97" t="s">
+        <v>619</v>
+      </c>
+      <c r="F97" t="s">
+        <v>620</v>
+      </c>
+      <c r="G97" t="s">
+        <v>621</v>
+      </c>
+      <c r="H97" t="s">
+        <v>224</v>
+      </c>
+      <c r="I97" t="s">
+        <v>622</v>
+      </c>
+      <c r="J97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>92</v>
+      </c>
+      <c r="B98" t="s">
+        <v>623</v>
+      </c>
+      <c r="C98" t="s">
+        <v>624</v>
+      </c>
+      <c r="D98" t="s">
+        <v>625</v>
+      </c>
+      <c r="E98" t="s">
+        <v>626</v>
+      </c>
+      <c r="F98" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" t="s">
+        <v>628</v>
+      </c>
+      <c r="H98" t="s">
+        <v>217</v>
+      </c>
+      <c r="I98" t="s">
+        <v>629</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C99" t="s">
+        <v>624</v>
+      </c>
+      <c r="D99" t="s">
+        <v>631</v>
+      </c>
+      <c r="E99" t="s">
+        <v>632</v>
+      </c>
+      <c r="F99" t="s">
+        <v>633</v>
+      </c>
+      <c r="G99" t="s">
+        <v>634</v>
+      </c>
+      <c r="H99" t="s">
+        <v>217</v>
+      </c>
+      <c r="I99" t="s">
+        <v>628</v>
+      </c>
+      <c r="J99" t="s">
+        <v>38</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>94</v>
+      </c>
+      <c r="B100" t="s">
+        <v>635</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" t="s">
+        <v>636</v>
+      </c>
+      <c r="E100" t="s">
+        <v>637</v>
+      </c>
+      <c r="F100" t="s">
+        <v>638</v>
+      </c>
+      <c r="G100" t="s">
+        <v>639</v>
+      </c>
+      <c r="H100" t="s">
+        <v>640</v>
+      </c>
+      <c r="I100" t="s">
+        <v>641</v>
+      </c>
+      <c r="J100" t="s">
+        <v>38</v>
+      </c>
+      <c r="K100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>642</v>
+      </c>
+      <c r="C101" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" t="s">
+        <v>643</v>
+      </c>
+      <c r="E101" t="s">
+        <v>644</v>
+      </c>
+      <c r="F101" t="s">
+        <v>645</v>
+      </c>
+      <c r="G101" t="s">
+        <v>646</v>
+      </c>
+      <c r="H101" t="s">
+        <v>640</v>
+      </c>
+      <c r="I101" t="s">
+        <v>647</v>
+      </c>
+      <c r="J101" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>648</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" t="s">
+        <v>649</v>
+      </c>
+      <c r="E102" t="s">
+        <v>650</v>
+      </c>
+      <c r="F102" t="s">
+        <v>651</v>
+      </c>
+      <c r="G102" t="s">
+        <v>652</v>
+      </c>
+      <c r="H102" t="s">
+        <v>217</v>
+      </c>
+      <c r="I102" t="s">
+        <v>653</v>
+      </c>
+      <c r="J102" t="s">
+        <v>377</v>
+      </c>
+      <c r="K102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>654</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
+        <v>655</v>
+      </c>
+      <c r="E103" t="s">
+        <v>656</v>
+      </c>
+      <c r="F103" t="s">
+        <v>657</v>
+      </c>
+      <c r="G103" t="s">
+        <v>658</v>
+      </c>
+      <c r="H103" t="s">
+        <v>99</v>
+      </c>
+      <c r="I103" t="s">
+        <v>659</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>660</v>
+      </c>
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>661</v>
+      </c>
+      <c r="E104" t="s">
+        <v>662</v>
+      </c>
+      <c r="F104" t="s">
+        <v>663</v>
+      </c>
+      <c r="G104" t="s">
+        <v>664</v>
+      </c>
+      <c r="H104" t="s">
+        <v>99</v>
+      </c>
+      <c r="I104" t="s">
+        <v>665</v>
+      </c>
+      <c r="J104" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>666</v>
+      </c>
+      <c r="C105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" t="s">
+        <v>667</v>
+      </c>
+      <c r="E105" t="s">
+        <v>668</v>
+      </c>
+      <c r="F105" t="s">
+        <v>669</v>
+      </c>
+      <c r="G105" t="s">
+        <v>670</v>
+      </c>
+      <c r="H105" t="s">
+        <v>671</v>
+      </c>
+      <c r="I105" t="s">
+        <v>672</v>
+      </c>
+      <c r="J105" t="s">
+        <v>377</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>673</v>
+      </c>
+      <c r="C106" t="s">
+        <v>674</v>
+      </c>
+      <c r="D106" t="s">
+        <v>675</v>
+      </c>
+      <c r="E106" t="s">
+        <v>676</v>
+      </c>
+      <c r="F106" t="s">
+        <v>677</v>
+      </c>
+      <c r="G106" t="s">
+        <v>438</v>
+      </c>
+      <c r="H106" t="s">
+        <v>375</v>
+      </c>
+      <c r="I106" t="s">
+        <v>439</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>678</v>
+      </c>
+      <c r="C107" t="s">
+        <v>679</v>
+      </c>
+      <c r="D107" t="s">
+        <v>680</v>
+      </c>
+      <c r="E107" t="s">
+        <v>681</v>
+      </c>
+      <c r="F107" t="s">
+        <v>682</v>
+      </c>
+      <c r="G107" t="s">
+        <v>317</v>
+      </c>
+      <c r="H107" t="s">
+        <v>531</v>
+      </c>
+      <c r="I107" t="s">
+        <v>683</v>
+      </c>
+      <c r="J107" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>102</v>
+      </c>
+      <c r="B108" t="s">
+        <v>684</v>
+      </c>
+      <c r="C108" t="s">
+        <v>685</v>
+      </c>
+      <c r="D108" t="s">
+        <v>686</v>
+      </c>
+      <c r="E108" t="s">
+        <v>687</v>
+      </c>
+      <c r="F108" t="s">
+        <v>688</v>
+      </c>
+      <c r="G108" t="s">
+        <v>296</v>
+      </c>
+      <c r="H108" t="s">
+        <v>531</v>
+      </c>
+      <c r="I108" t="s">
+        <v>298</v>
+      </c>
+      <c r="J108" t="s">
+        <v>196</v>
+      </c>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>103</v>
+      </c>
+      <c r="B109" t="s">
+        <v>689</v>
+      </c>
+      <c r="C109" t="s">
+        <v>690</v>
+      </c>
+      <c r="D109" t="s">
+        <v>691</v>
+      </c>
+      <c r="E109" t="s">
+        <v>692</v>
+      </c>
+      <c r="F109" t="s">
+        <v>693</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>356</v>
+      </c>
+      <c r="I109" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" t="s">
+        <v>38</v>
+      </c>
+      <c r="K109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>694</v>
+      </c>
+      <c r="D110" t="s">
+        <v>695</v>
+      </c>
+      <c r="E110" t="s">
+        <v>696</v>
+      </c>
+      <c r="F110" t="s">
+        <v>697</v>
+      </c>
+      <c r="G110" t="s">
+        <v>698</v>
+      </c>
+      <c r="H110" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s">
+        <v>699</v>
+      </c>
+      <c r="J110" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
+        <v>700</v>
+      </c>
+      <c r="D111" t="s">
+        <v>701</v>
+      </c>
+      <c r="E111" t="s">
+        <v>702</v>
+      </c>
+      <c r="F111" t="s">
+        <v>703</v>
+      </c>
+      <c r="G111" t="s">
+        <v>108</v>
+      </c>
+      <c r="H111" t="s">
+        <v>158</v>
+      </c>
+      <c r="I111" t="s">
+        <v>555</v>
+      </c>
+      <c r="J111" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
+        <v>704</v>
+      </c>
+      <c r="C112" t="s">
+        <v>705</v>
+      </c>
+      <c r="D112" t="s">
+        <v>706</v>
+      </c>
+      <c r="E112" t="s">
+        <v>707</v>
+      </c>
+      <c r="F112" t="s">
+        <v>708</v>
+      </c>
+      <c r="G112" t="s">
+        <v>709</v>
+      </c>
+      <c r="H112" t="s">
+        <v>710</v>
+      </c>
+      <c r="I112" t="s">
+        <v>711</v>
+      </c>
+      <c r="J112" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>712</v>
+      </c>
+      <c r="C113" t="s">
+        <v>713</v>
+      </c>
+      <c r="D113" t="s">
+        <v>714</v>
+      </c>
+      <c r="E113" t="s">
+        <v>715</v>
+      </c>
+      <c r="F113" t="s">
+        <v>716</v>
+      </c>
+      <c r="G113" t="s">
+        <v>717</v>
+      </c>
+      <c r="H113" t="s">
+        <v>718</v>
+      </c>
+      <c r="I113" t="s">
+        <v>719</v>
+      </c>
+      <c r="J113" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>720</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>721</v>
+      </c>
+      <c r="E114" t="s">
+        <v>722</v>
+      </c>
+      <c r="F114" t="s">
+        <v>723</v>
+      </c>
+      <c r="G114" t="s">
+        <v>724</v>
+      </c>
+      <c r="H114" t="s">
+        <v>390</v>
+      </c>
+      <c r="I114" t="s">
+        <v>725</v>
+      </c>
+      <c r="J114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>726</v>
+      </c>
+      <c r="C115" t="s">
+        <v>624</v>
+      </c>
+      <c r="D115" t="s">
+        <v>727</v>
+      </c>
+      <c r="E115" t="s">
+        <v>728</v>
+      </c>
+      <c r="F115" t="s">
+        <v>729</v>
+      </c>
+      <c r="G115" t="s">
+        <v>730</v>
+      </c>
+      <c r="H115" t="s">
+        <v>390</v>
+      </c>
+      <c r="I115" t="s">
+        <v>731</v>
+      </c>
+      <c r="J115" t="s">
+        <v>29</v>
+      </c>
+      <c r="K115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>732</v>
+      </c>
+      <c r="C116" t="s">
+        <v>733</v>
+      </c>
+      <c r="D116" t="s">
+        <v>734</v>
+      </c>
+      <c r="E116" t="s">
+        <v>735</v>
+      </c>
+      <c r="F116" t="s">
+        <v>736</v>
+      </c>
+      <c r="G116" t="s">
+        <v>737</v>
+      </c>
+      <c r="H116" t="s">
+        <v>738</v>
+      </c>
+      <c r="I116" t="s">
+        <v>739</v>
+      </c>
+      <c r="J116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>740</v>
+      </c>
+      <c r="C117" t="s">
+        <v>733</v>
+      </c>
+      <c r="D117" t="s">
+        <v>741</v>
+      </c>
+      <c r="E117" t="s">
+        <v>742</v>
+      </c>
+      <c r="F117" t="s">
+        <v>743</v>
+      </c>
+      <c r="G117" t="s">
         <v>744</v>
       </c>
-      <c r="B43" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" t="s">
-        <v>277</v>
-      </c>
-      <c r="F43" t="s">
-        <v>278</v>
-      </c>
-      <c r="G43" t="s">
-        <v>265</v>
-      </c>
-      <c r="H43" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" t="s">
-        <v>267</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" t="s">
-        <v>85</v>
+      <c r="H117" t="s">
+        <v>738</v>
+      </c>
+      <c r="I117" t="s">
+        <v>745</v>
+      </c>
+      <c r="J117" t="s">
+        <v>38</v>
+      </c>
+      <c r="K117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>746</v>
+      </c>
+      <c r="C118" t="s">
+        <v>733</v>
+      </c>
+      <c r="D118" t="s">
+        <v>747</v>
+      </c>
+      <c r="E118" t="s">
+        <v>748</v>
+      </c>
+      <c r="F118" t="s">
+        <v>749</v>
+      </c>
+      <c r="G118" t="s">
+        <v>750</v>
+      </c>
+      <c r="H118" t="s">
+        <v>738</v>
+      </c>
+      <c r="I118" t="s">
+        <v>751</v>
+      </c>
+      <c r="J118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>752</v>
+      </c>
+      <c r="C119" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" t="s">
+        <v>753</v>
+      </c>
+      <c r="E119" t="s">
+        <v>754</v>
+      </c>
+      <c r="F119" t="s">
+        <v>755</v>
+      </c>
+      <c r="G119" t="s">
+        <v>530</v>
+      </c>
+      <c r="H119" t="s">
+        <v>531</v>
+      </c>
+      <c r="I119" t="s">
+        <v>532</v>
+      </c>
+      <c r="J119" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>756</v>
+      </c>
+      <c r="C120" t="s">
+        <v>757</v>
+      </c>
+      <c r="D120" t="s">
+        <v>758</v>
+      </c>
+      <c r="E120" t="s">
+        <v>759</v>
+      </c>
+      <c r="F120" t="s">
+        <v>760</v>
+      </c>
+      <c r="G120" t="s">
+        <v>761</v>
+      </c>
+      <c r="H120" t="s">
+        <v>762</v>
+      </c>
+      <c r="I120" t="s">
+        <v>330</v>
+      </c>
+      <c r="J120" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>763</v>
+      </c>
+      <c r="D121" t="s">
+        <v>764</v>
+      </c>
+      <c r="E121" t="s">
+        <v>765</v>
+      </c>
+      <c r="F121" t="s">
+        <v>766</v>
+      </c>
+      <c r="G121" t="s">
+        <v>767</v>
+      </c>
+      <c r="H121" t="s">
+        <v>115</v>
+      </c>
+      <c r="I121" t="s">
+        <v>768</v>
+      </c>
+      <c r="J121" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>769</v>
+      </c>
+      <c r="D122" t="s">
+        <v>770</v>
+      </c>
+      <c r="E122" t="s">
+        <v>771</v>
+      </c>
+      <c r="F122" t="s">
+        <v>772</v>
+      </c>
+      <c r="G122" t="s">
+        <v>335</v>
+      </c>
+      <c r="H122" t="s">
+        <v>773</v>
+      </c>
+      <c r="I122" t="s">
+        <v>336</v>
+      </c>
+      <c r="J122" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>117</v>
+      </c>
+      <c r="B123" t="s">
+        <v>774</v>
+      </c>
+      <c r="C123" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" t="s">
+        <v>775</v>
+      </c>
+      <c r="E123" t="s">
+        <v>776</v>
+      </c>
+      <c r="F123" t="s">
+        <v>777</v>
+      </c>
+      <c r="G123" t="s">
+        <v>778</v>
+      </c>
+      <c r="H123" t="s">
+        <v>531</v>
+      </c>
+      <c r="I123" t="s">
+        <v>779</v>
+      </c>
+      <c r="J123" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>780</v>
+      </c>
+      <c r="C124" t="s">
+        <v>781</v>
+      </c>
+      <c r="D124" t="s">
+        <v>782</v>
+      </c>
+      <c r="E124" t="s">
+        <v>783</v>
+      </c>
+      <c r="F124" t="s">
+        <v>784</v>
+      </c>
+      <c r="G124" t="s">
+        <v>785</v>
+      </c>
+      <c r="H124" t="s">
+        <v>91</v>
+      </c>
+      <c r="I124" t="s">
+        <v>786</v>
+      </c>
+      <c r="J124" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>787</v>
+      </c>
+      <c r="D125" t="s">
+        <v>788</v>
+      </c>
+      <c r="E125" t="s">
+        <v>789</v>
+      </c>
+      <c r="F125" t="s">
+        <v>790</v>
+      </c>
+      <c r="G125" t="s">
+        <v>791</v>
+      </c>
+      <c r="H125" t="s">
+        <v>792</v>
+      </c>
+      <c r="I125" t="s">
+        <v>793</v>
+      </c>
+      <c r="J125" t="s">
+        <v>29</v>
+      </c>
+      <c r="K125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>794</v>
+      </c>
+      <c r="D126" t="s">
+        <v>795</v>
+      </c>
+      <c r="E126" t="s">
+        <v>796</v>
+      </c>
+      <c r="F126" t="s">
+        <v>797</v>
+      </c>
+      <c r="G126" t="s">
+        <v>798</v>
+      </c>
+      <c r="H126" t="s">
+        <v>554</v>
+      </c>
+      <c r="I126" t="s">
+        <v>799</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>800</v>
+      </c>
+      <c r="C127" t="s">
+        <v>801</v>
+      </c>
+      <c r="D127" t="s">
+        <v>802</v>
+      </c>
+      <c r="E127" t="s">
+        <v>803</v>
+      </c>
+      <c r="F127" t="s">
+        <v>804</v>
+      </c>
+      <c r="G127" t="s">
+        <v>805</v>
+      </c>
+      <c r="H127" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127" t="s">
+        <v>806</v>
+      </c>
+      <c r="J127" t="s">
+        <v>38</v>
+      </c>
+      <c r="K127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
+        <v>807</v>
+      </c>
+      <c r="C128" t="s">
+        <v>801</v>
+      </c>
+      <c r="D128" t="s">
+        <v>808</v>
+      </c>
+      <c r="E128" t="s">
+        <v>809</v>
+      </c>
+      <c r="F128" t="s">
+        <v>810</v>
+      </c>
+      <c r="G128" t="s">
+        <v>811</v>
+      </c>
+      <c r="H128" t="s">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s">
+        <v>812</v>
+      </c>
+      <c r="J128" t="s">
+        <v>38</v>
+      </c>
+      <c r="K128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
+        <v>813</v>
+      </c>
+      <c r="C129" t="s">
+        <v>801</v>
+      </c>
+      <c r="D129" t="s">
+        <v>814</v>
+      </c>
+      <c r="E129" t="s">
+        <v>815</v>
+      </c>
+      <c r="F129" t="s">
+        <v>816</v>
+      </c>
+      <c r="G129" t="s">
+        <v>805</v>
+      </c>
+      <c r="H129" t="s">
+        <v>82</v>
+      </c>
+      <c r="I129" t="s">
+        <v>806</v>
+      </c>
+      <c r="J129" t="s">
+        <v>38</v>
+      </c>
+      <c r="K129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>817</v>
+      </c>
+      <c r="C130" t="s">
+        <v>818</v>
+      </c>
+      <c r="D130" t="s">
+        <v>819</v>
+      </c>
+      <c r="E130" t="s">
+        <v>820</v>
+      </c>
+      <c r="F130" t="s">
+        <v>821</v>
+      </c>
+      <c r="G130" t="s">
+        <v>822</v>
+      </c>
+      <c r="H130" t="s">
+        <v>823</v>
+      </c>
+      <c r="I130" t="s">
+        <v>824</v>
+      </c>
+      <c r="J130" t="s">
+        <v>38</v>
+      </c>
+      <c r="K130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>825</v>
+      </c>
+      <c r="C131" t="s">
+        <v>826</v>
+      </c>
+      <c r="D131" t="s">
+        <v>819</v>
+      </c>
+      <c r="E131" t="s">
+        <v>827</v>
+      </c>
+      <c r="F131" t="s">
+        <v>828</v>
+      </c>
+      <c r="G131" t="s">
+        <v>829</v>
+      </c>
+      <c r="H131" t="s">
+        <v>823</v>
+      </c>
+      <c r="I131" t="s">
+        <v>830</v>
+      </c>
+      <c r="J131" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>125</v>
+      </c>
+      <c r="B132" t="s">
+        <v>831</v>
+      </c>
+      <c r="C132" t="s">
+        <v>826</v>
+      </c>
+      <c r="D132" t="s">
+        <v>832</v>
+      </c>
+      <c r="E132" t="s">
+        <v>833</v>
+      </c>
+      <c r="F132" t="s">
+        <v>834</v>
+      </c>
+      <c r="G132" t="s">
+        <v>835</v>
+      </c>
+      <c r="H132" t="s">
+        <v>823</v>
+      </c>
+      <c r="I132" t="s">
+        <v>836</v>
+      </c>
+      <c r="J132" t="s">
+        <v>38</v>
+      </c>
+      <c r="K132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>126</v>
+      </c>
+      <c r="B133" t="s">
+        <v>837</v>
+      </c>
+      <c r="C133" t="s">
+        <v>838</v>
+      </c>
+      <c r="D133" t="s">
+        <v>839</v>
+      </c>
+      <c r="E133" t="s">
+        <v>840</v>
+      </c>
+      <c r="F133" t="s">
+        <v>841</v>
+      </c>
+      <c r="G133" t="s">
+        <v>842</v>
+      </c>
+      <c r="H133" t="s">
+        <v>823</v>
+      </c>
+      <c r="I133" t="s">
+        <v>843</v>
+      </c>
+      <c r="J133" t="s">
+        <v>377</v>
+      </c>
+      <c r="K133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>126</v>
+      </c>
+      <c r="B134" t="s">
+        <v>844</v>
+      </c>
+      <c r="C134" t="s">
+        <v>818</v>
+      </c>
+      <c r="D134" t="s">
+        <v>839</v>
+      </c>
+      <c r="E134" t="s">
+        <v>845</v>
+      </c>
+      <c r="F134" t="s">
+        <v>846</v>
+      </c>
+      <c r="G134" t="s">
+        <v>822</v>
+      </c>
+      <c r="H134" t="s">
+        <v>823</v>
+      </c>
+      <c r="I134" t="s">
+        <v>824</v>
+      </c>
+      <c r="J134" t="s">
+        <v>38</v>
+      </c>
+      <c r="K134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>127</v>
+      </c>
+      <c r="B135" t="s">
+        <v>847</v>
+      </c>
+      <c r="C135" t="s">
+        <v>826</v>
+      </c>
+      <c r="D135" t="s">
+        <v>848</v>
+      </c>
+      <c r="E135" t="s">
+        <v>849</v>
+      </c>
+      <c r="F135" t="s">
+        <v>850</v>
+      </c>
+      <c r="G135" t="s">
+        <v>851</v>
+      </c>
+      <c r="H135" t="s">
+        <v>823</v>
+      </c>
+      <c r="I135" t="s">
+        <v>852</v>
+      </c>
+      <c r="J135" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>853</v>
+      </c>
+      <c r="C136" t="s">
+        <v>826</v>
+      </c>
+      <c r="D136" t="s">
+        <v>854</v>
+      </c>
+      <c r="E136" t="s">
+        <v>855</v>
+      </c>
+      <c r="F136" t="s">
+        <v>856</v>
+      </c>
+      <c r="G136" t="s">
+        <v>829</v>
+      </c>
+      <c r="H136" t="s">
+        <v>823</v>
+      </c>
+      <c r="I136" t="s">
+        <v>830</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>129</v>
+      </c>
+      <c r="B137" t="s">
+        <v>857</v>
+      </c>
+      <c r="C137" t="s">
+        <v>826</v>
+      </c>
+      <c r="D137" t="s">
+        <v>858</v>
+      </c>
+      <c r="E137" t="s">
+        <v>859</v>
+      </c>
+      <c r="F137" t="s">
+        <v>860</v>
+      </c>
+      <c r="G137" t="s">
+        <v>861</v>
+      </c>
+      <c r="H137" t="s">
+        <v>823</v>
+      </c>
+      <c r="I137" t="s">
+        <v>194</v>
+      </c>
+      <c r="J137" t="s">
+        <v>38</v>
+      </c>
+      <c r="K137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>130</v>
+      </c>
+      <c r="B138" t="s">
+        <v>862</v>
+      </c>
+      <c r="C138" t="s">
+        <v>838</v>
+      </c>
+      <c r="D138" t="s">
+        <v>863</v>
+      </c>
+      <c r="E138" t="s">
+        <v>864</v>
+      </c>
+      <c r="F138" t="s">
+        <v>865</v>
+      </c>
+      <c r="G138" t="s">
+        <v>866</v>
+      </c>
+      <c r="H138" t="s">
+        <v>823</v>
+      </c>
+      <c r="I138" t="s">
+        <v>867</v>
+      </c>
+      <c r="J138" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>131</v>
+      </c>
+      <c r="B139" t="s">
+        <v>868</v>
+      </c>
+      <c r="C139" t="s">
+        <v>869</v>
+      </c>
+      <c r="D139" t="s">
+        <v>870</v>
+      </c>
+      <c r="E139" t="s">
+        <v>871</v>
+      </c>
+      <c r="F139" t="s">
+        <v>872</v>
+      </c>
+      <c r="G139" t="s">
+        <v>767</v>
+      </c>
+      <c r="H139" t="s">
+        <v>873</v>
+      </c>
+      <c r="I139" t="s">
+        <v>768</v>
+      </c>
+      <c r="J139" t="s">
+        <v>377</v>
+      </c>
+      <c r="K139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>132</v>
+      </c>
+      <c r="B140" t="s">
+        <v>874</v>
+      </c>
+      <c r="C140" t="s">
+        <v>733</v>
+      </c>
+      <c r="D140" t="s">
+        <v>875</v>
+      </c>
+      <c r="E140" t="s">
+        <v>876</v>
+      </c>
+      <c r="F140" t="s">
+        <v>877</v>
+      </c>
+      <c r="G140" t="s">
+        <v>786</v>
+      </c>
+      <c r="H140" t="s">
+        <v>209</v>
+      </c>
+      <c r="I140" t="s">
+        <v>878</v>
+      </c>
+      <c r="J140" t="s">
+        <v>196</v>
+      </c>
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>133</v>
+      </c>
+      <c r="B141" t="s">
+        <v>879</v>
+      </c>
+      <c r="C141" t="s">
+        <v>801</v>
+      </c>
+      <c r="D141" t="s">
+        <v>880</v>
+      </c>
+      <c r="E141" t="s">
+        <v>881</v>
+      </c>
+      <c r="F141" t="s">
+        <v>882</v>
+      </c>
+      <c r="G141" t="s">
+        <v>100</v>
+      </c>
+      <c r="H141" t="s">
+        <v>121</v>
+      </c>
+      <c r="I141" t="s">
+        <v>883</v>
+      </c>
+      <c r="J141" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>134</v>
+      </c>
+      <c r="B142" t="s">
+        <v>884</v>
+      </c>
+      <c r="C142" t="s">
+        <v>801</v>
+      </c>
+      <c r="D142" t="s">
+        <v>885</v>
+      </c>
+      <c r="E142" t="s">
+        <v>886</v>
+      </c>
+      <c r="F142" t="s">
+        <v>887</v>
+      </c>
+      <c r="G142" t="s">
+        <v>100</v>
+      </c>
+      <c r="H142" t="s">
+        <v>121</v>
+      </c>
+      <c r="I142" t="s">
+        <v>883</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>134</v>
+      </c>
+      <c r="B143" t="s">
+        <v>888</v>
+      </c>
+      <c r="C143" t="s">
+        <v>889</v>
+      </c>
+      <c r="D143" t="s">
+        <v>885</v>
+      </c>
+      <c r="E143" t="s">
+        <v>890</v>
+      </c>
+      <c r="F143" t="s">
+        <v>891</v>
+      </c>
+      <c r="G143" t="s">
+        <v>892</v>
+      </c>
+      <c r="H143" t="s">
+        <v>82</v>
+      </c>
+      <c r="I143" t="s">
+        <v>893</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>894</v>
+      </c>
+      <c r="C144" t="s">
+        <v>889</v>
+      </c>
+      <c r="D144" t="s">
+        <v>895</v>
+      </c>
+      <c r="E144" t="s">
+        <v>896</v>
+      </c>
+      <c r="F144" t="s">
+        <v>897</v>
+      </c>
+      <c r="G144" t="s">
+        <v>335</v>
+      </c>
+      <c r="H144" t="s">
+        <v>609</v>
+      </c>
+      <c r="I144" t="s">
+        <v>336</v>
+      </c>
+      <c r="J144" t="s">
+        <v>38</v>
+      </c>
+      <c r="K144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>135</v>
+      </c>
+      <c r="B145" t="s">
+        <v>898</v>
+      </c>
+      <c r="C145" t="s">
+        <v>801</v>
+      </c>
+      <c r="D145" t="s">
+        <v>895</v>
+      </c>
+      <c r="E145" t="s">
+        <v>899</v>
+      </c>
+      <c r="F145" t="s">
+        <v>900</v>
+      </c>
+      <c r="G145" t="s">
+        <v>100</v>
+      </c>
+      <c r="H145" t="s">
+        <v>609</v>
+      </c>
+      <c r="I145" t="s">
+        <v>883</v>
+      </c>
+      <c r="J145" t="s">
+        <v>38</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>136</v>
+      </c>
+      <c r="B146" t="s">
+        <v>901</v>
+      </c>
+      <c r="C146" t="s">
+        <v>902</v>
+      </c>
+      <c r="D146" t="s">
+        <v>903</v>
+      </c>
+      <c r="E146" t="s">
+        <v>904</v>
+      </c>
+      <c r="F146" t="s">
+        <v>905</v>
+      </c>
+      <c r="G146" t="s">
+        <v>106</v>
+      </c>
+      <c r="H146" t="s">
+        <v>531</v>
+      </c>
+      <c r="I146" t="s">
+        <v>108</v>
+      </c>
+      <c r="J146" t="s">
+        <v>377</v>
+      </c>
+      <c r="K146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
+        <v>906</v>
+      </c>
+      <c r="D147" t="s">
+        <v>907</v>
+      </c>
+      <c r="E147" t="s">
+        <v>908</v>
+      </c>
+      <c r="F147" t="s">
+        <v>909</v>
+      </c>
+      <c r="G147" t="s">
+        <v>910</v>
+      </c>
+      <c r="H147" t="s">
+        <v>271</v>
+      </c>
+      <c r="I147" t="s">
+        <v>911</v>
+      </c>
+      <c r="J147" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>912</v>
+      </c>
+      <c r="C148" t="s">
+        <v>801</v>
+      </c>
+      <c r="D148" t="s">
+        <v>913</v>
+      </c>
+      <c r="E148" t="s">
+        <v>914</v>
+      </c>
+      <c r="F148" t="s">
+        <v>915</v>
+      </c>
+      <c r="G148" t="s">
+        <v>480</v>
+      </c>
+      <c r="H148" t="s">
+        <v>916</v>
+      </c>
+      <c r="I148" t="s">
+        <v>481</v>
+      </c>
+      <c r="J148" t="s">
+        <v>38</v>
+      </c>
+      <c r="K148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>139</v>
+      </c>
+      <c r="B149" t="s">
+        <v>917</v>
+      </c>
+      <c r="C149" t="s">
+        <v>801</v>
+      </c>
+      <c r="D149" t="s">
+        <v>918</v>
+      </c>
+      <c r="E149" t="s">
+        <v>919</v>
+      </c>
+      <c r="F149" t="s">
+        <v>920</v>
+      </c>
+      <c r="G149" t="s">
+        <v>921</v>
+      </c>
+      <c r="H149" t="s">
+        <v>916</v>
+      </c>
+      <c r="I149" t="s">
+        <v>922</v>
+      </c>
+      <c r="J149" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>923</v>
+      </c>
+      <c r="D150" t="s">
+        <v>924</v>
+      </c>
+      <c r="E150" t="s">
+        <v>925</v>
+      </c>
+      <c r="F150" t="s">
+        <v>926</v>
+      </c>
+      <c r="G150" t="s">
+        <v>927</v>
+      </c>
+      <c r="H150" t="s">
+        <v>142</v>
+      </c>
+      <c r="I150" t="s">
+        <v>928</v>
+      </c>
+      <c r="J150" t="s">
+        <v>38</v>
+      </c>
+      <c r="K150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>929</v>
+      </c>
+      <c r="C151" t="s">
+        <v>930</v>
+      </c>
+      <c r="D151" t="s">
+        <v>924</v>
+      </c>
+      <c r="E151" t="s">
+        <v>931</v>
+      </c>
+      <c r="F151" t="s">
+        <v>932</v>
+      </c>
+      <c r="G151" t="s">
+        <v>583</v>
+      </c>
+      <c r="H151" t="s">
+        <v>671</v>
+      </c>
+      <c r="I151" t="s">
+        <v>584</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>933</v>
+      </c>
+      <c r="C152" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" t="s">
+        <v>934</v>
+      </c>
+      <c r="E152" t="s">
+        <v>935</v>
+      </c>
+      <c r="F152" t="s">
+        <v>936</v>
+      </c>
+      <c r="G152" t="s">
+        <v>461</v>
+      </c>
+      <c r="H152" t="s">
+        <v>82</v>
+      </c>
+      <c r="I152" t="s">
+        <v>462</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>937</v>
+      </c>
+      <c r="D153" t="s">
+        <v>938</v>
+      </c>
+      <c r="E153" t="s">
+        <v>939</v>
+      </c>
+      <c r="F153" t="s">
+        <v>940</v>
+      </c>
+      <c r="G153" t="s">
+        <v>330</v>
+      </c>
+      <c r="H153" t="s">
+        <v>941</v>
+      </c>
+      <c r="I153" t="s">
+        <v>331</v>
+      </c>
+      <c r="J153" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>942</v>
+      </c>
+      <c r="D154" t="s">
+        <v>938</v>
+      </c>
+      <c r="E154" t="s">
+        <v>943</v>
+      </c>
+      <c r="F154" t="s">
+        <v>944</v>
+      </c>
+      <c r="G154" t="s">
+        <v>330</v>
+      </c>
+      <c r="H154" t="s">
+        <v>945</v>
+      </c>
+      <c r="I154" t="s">
+        <v>331</v>
+      </c>
+      <c r="J154" t="s">
+        <v>29</v>
+      </c>
+      <c r="K154" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>145</v>
+      </c>
+      <c r="B155" t="s">
+        <v>946</v>
+      </c>
+      <c r="C155" t="s">
+        <v>947</v>
+      </c>
+      <c r="D155" t="s">
+        <v>948</v>
+      </c>
+      <c r="E155" t="s">
+        <v>949</v>
+      </c>
+      <c r="F155" t="s">
+        <v>950</v>
+      </c>
+      <c r="G155" t="s">
+        <v>951</v>
+      </c>
+      <c r="H155" t="s">
+        <v>952</v>
+      </c>
+      <c r="I155" t="s">
+        <v>953</v>
+      </c>
+      <c r="J155" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>146</v>
+      </c>
+      <c r="B156" t="s">
+        <v>954</v>
+      </c>
+      <c r="C156" t="s">
+        <v>947</v>
+      </c>
+      <c r="D156" t="s">
+        <v>955</v>
+      </c>
+      <c r="E156" t="s">
+        <v>956</v>
+      </c>
+      <c r="F156" t="s">
+        <v>957</v>
+      </c>
+      <c r="G156" t="s">
+        <v>958</v>
+      </c>
+      <c r="H156" t="s">
+        <v>959</v>
+      </c>
+      <c r="I156" t="s">
+        <v>960</v>
+      </c>
+      <c r="J156" t="s">
+        <v>38</v>
+      </c>
+      <c r="K156" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>961</v>
+      </c>
+      <c r="C157" t="s">
+        <v>947</v>
+      </c>
+      <c r="D157" t="s">
+        <v>962</v>
+      </c>
+      <c r="E157" t="s">
+        <v>963</v>
+      </c>
+      <c r="F157" t="s">
+        <v>964</v>
+      </c>
+      <c r="G157" t="s">
+        <v>965</v>
+      </c>
+      <c r="H157" t="s">
+        <v>959</v>
+      </c>
+      <c r="I157" t="s">
+        <v>966</v>
+      </c>
+      <c r="J157" t="s">
+        <v>38</v>
+      </c>
+      <c r="K157" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>148</v>
+      </c>
+      <c r="B158" t="s">
+        <v>967</v>
+      </c>
+      <c r="C158" t="s">
+        <v>947</v>
+      </c>
+      <c r="D158" t="s">
+        <v>968</v>
+      </c>
+      <c r="E158" t="s">
+        <v>969</v>
+      </c>
+      <c r="F158" t="s">
+        <v>970</v>
+      </c>
+      <c r="G158" t="s">
+        <v>971</v>
+      </c>
+      <c r="H158" t="s">
+        <v>952</v>
+      </c>
+      <c r="I158" t="s">
+        <v>972</v>
+      </c>
+      <c r="J158" t="s">
+        <v>38</v>
+      </c>
+      <c r="K158" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>149</v>
+      </c>
+      <c r="B159" t="s">
+        <v>973</v>
+      </c>
+      <c r="C159" t="s">
+        <v>974</v>
+      </c>
+      <c r="D159" t="s">
+        <v>975</v>
+      </c>
+      <c r="E159" t="s">
+        <v>976</v>
+      </c>
+      <c r="F159" t="s">
+        <v>977</v>
+      </c>
+      <c r="G159" t="s">
+        <v>978</v>
+      </c>
+      <c r="H159" t="s">
+        <v>428</v>
+      </c>
+      <c r="I159" t="s">
+        <v>979</v>
+      </c>
+      <c r="J159" t="s">
+        <v>29</v>
+      </c>
+      <c r="K159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>150</v>
+      </c>
+      <c r="B160" t="s">
+        <v>980</v>
+      </c>
+      <c r="C160" t="s">
+        <v>947</v>
+      </c>
+      <c r="D160" t="s">
+        <v>981</v>
+      </c>
+      <c r="E160" t="s">
+        <v>982</v>
+      </c>
+      <c r="F160" t="s">
+        <v>983</v>
+      </c>
+      <c r="G160" t="s">
+        <v>984</v>
+      </c>
+      <c r="H160" t="s">
+        <v>985</v>
+      </c>
+      <c r="I160" t="s">
+        <v>986</v>
+      </c>
+      <c r="J160" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>151</v>
+      </c>
+      <c r="B161" t="s">
+        <v>987</v>
+      </c>
+      <c r="C161" t="s">
+        <v>947</v>
+      </c>
+      <c r="D161" t="s">
+        <v>988</v>
+      </c>
+      <c r="E161" t="s">
+        <v>989</v>
+      </c>
+      <c r="F161" t="s">
+        <v>990</v>
+      </c>
+      <c r="G161" t="s">
+        <v>991</v>
+      </c>
+      <c r="H161" t="s">
+        <v>985</v>
+      </c>
+      <c r="I161" t="s">
+        <v>992</v>
+      </c>
+      <c r="J161" t="s">
+        <v>38</v>
+      </c>
+      <c r="K161" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>152</v>
+      </c>
+      <c r="B162" t="s">
+        <v>993</v>
+      </c>
+      <c r="C162" t="s">
+        <v>947</v>
+      </c>
+      <c r="D162" t="s">
+        <v>994</v>
+      </c>
+      <c r="E162" t="s">
+        <v>995</v>
+      </c>
+      <c r="F162" t="s">
+        <v>996</v>
+      </c>
+      <c r="G162" t="s">
+        <v>997</v>
+      </c>
+      <c r="H162" t="s">
+        <v>738</v>
+      </c>
+      <c r="I162" t="s">
+        <v>998</v>
+      </c>
+      <c r="J162" t="s">
+        <v>38</v>
+      </c>
+      <c r="K162" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>153</v>
+      </c>
+      <c r="B163" t="s">
+        <v>999</v>
+      </c>
+      <c r="C163" t="s">
+        <v>947</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G163" t="s">
+        <v>997</v>
+      </c>
+      <c r="H163" t="s">
+        <v>738</v>
+      </c>
+      <c r="I163" t="s">
+        <v>998</v>
+      </c>
+      <c r="J163" t="s">
+        <v>38</v>
+      </c>
+      <c r="K163" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C164" t="s">
+        <v>947</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H164" t="s">
+        <v>959</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J164" t="s">
+        <v>29</v>
+      </c>
+      <c r="K164" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>155</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C165" t="s">
+        <v>947</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G165" t="s">
+        <v>415</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J165" t="s">
+        <v>38</v>
+      </c>
+      <c r="K165" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>156</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C166" t="s">
+        <v>947</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G166" t="s">
+        <v>984</v>
+      </c>
+      <c r="H166" t="s">
+        <v>985</v>
+      </c>
+      <c r="I166" t="s">
+        <v>986</v>
+      </c>
+      <c r="J166" t="s">
+        <v>38</v>
+      </c>
+      <c r="K166" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>157</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C167" t="s">
+        <v>947</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G167" t="s">
+        <v>984</v>
+      </c>
+      <c r="H167" t="s">
+        <v>985</v>
+      </c>
+      <c r="I167" t="s">
+        <v>986</v>
+      </c>
+      <c r="J167" t="s">
+        <v>38</v>
+      </c>
+      <c r="K167" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G168" t="s">
+        <v>317</v>
+      </c>
+      <c r="H168" t="s">
+        <v>209</v>
+      </c>
+      <c r="I168" t="s">
+        <v>683</v>
+      </c>
+      <c r="J168" t="s">
+        <v>29</v>
+      </c>
+      <c r="K168" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>82</v>
+      </c>
+      <c r="I169" t="s">
+        <v>83</v>
+      </c>
+      <c r="J169" t="s">
+        <v>29</v>
+      </c>
+      <c r="K169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G170" t="s">
+        <v>106</v>
+      </c>
+      <c r="H170" t="s">
+        <v>554</v>
+      </c>
+      <c r="I170" t="s">
+        <v>108</v>
+      </c>
+      <c r="J170" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>161</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G171" t="s">
+        <v>194</v>
+      </c>
+      <c r="H171" t="s">
+        <v>455</v>
+      </c>
+      <c r="I171" t="s">
+        <v>195</v>
+      </c>
+      <c r="J171" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G172" t="s">
+        <v>223</v>
+      </c>
+      <c r="H172" t="s">
+        <v>209</v>
+      </c>
+      <c r="I172" t="s">
+        <v>225</v>
+      </c>
+      <c r="J172" t="s">
+        <v>29</v>
+      </c>
+      <c r="K172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>163</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C173" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H173" t="s">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J173" t="s">
+        <v>29</v>
+      </c>
+      <c r="K173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>164</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>82</v>
+      </c>
+      <c r="I174" t="s">
+        <v>83</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>165</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J175" t="s">
+        <v>29</v>
+      </c>
+      <c r="K175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>166</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C176" t="s">
+        <v>733</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J176" t="s">
+        <v>29</v>
+      </c>
+      <c r="K176" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>167</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J177" t="s">
+        <v>29</v>
+      </c>
+      <c r="K177" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
